--- a/mbs-perturbation/greedy/knn/smote/greedy-knn-smote-results.xlsx
+++ b/mbs-perturbation/greedy/knn/smote/greedy-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8782631509904237</v>
+        <v>0.9108618654073199</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999906298607598</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9662447257383966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9913419913419913</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9786324786324785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999623564840956</v>
+        <v>0.993064182194617</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5100671140939598</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="C6" t="n">
         <v>0.991304347826087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.673559822747415</v>
+        <v>0.9785407725321889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5053077357425184</v>
+        <v>0.9888951628082062</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8629890325748895</v>
+        <v>0.9557000533614994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9965292678336158</v>
+        <v>0.9956634669678148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9122226639690763</v>
+        <v>0.9743341440868741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8767066486434075</v>
+        <v>0.9785623680541805</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/knn/smote/greedy-knn-smote-results.xlsx
+++ b/mbs-perturbation/greedy/knn/smote/greedy-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6953405017921147</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7967145790554415</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9108618654073199</v>
+        <v>0.8879669008875739</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9775332840236686</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9805825242718447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9758454106280192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999906298607598</v>
+        <v>0.9822369637573963</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9662447257383966</v>
+        <v>0.7355072463768116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9913419913419913</v>
+        <v>0.9759615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9786324786324785</v>
+        <v>0.8388429752066117</v>
       </c>
       <c r="E5" t="n">
-        <v>0.993064182194617</v>
+        <v>0.8236755732248521</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.5751445086705202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9567307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.7184115523465705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9888951628082062</v>
+        <v>0.6373197115384615</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9557000533614994</v>
+        <v>0.7915457254530275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9956634669678148</v>
+        <v>0.9615384615384615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9743341440868741</v>
+        <v>0.8601936726780979</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9785623680541805</v>
+        <v>0.8617464866863905</v>
       </c>
     </row>
   </sheetData>
